--- a/results/mp/logistic/corona/confidence/42/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>anchor score</t>
   </si>
@@ -64,79 +64,76 @@
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>join</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -494,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -563,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7465753424657534</v>
+        <v>0.7431506849315068</v>
       </c>
       <c r="C3">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -581,19 +578,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -605,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -613,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.417989417989418</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C4">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -655,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -663,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3662790697674418</v>
+        <v>0.3604651162790697</v>
       </c>
       <c r="C5">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D5">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -705,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,13 +710,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2483221476510067</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,19 +728,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -763,13 +760,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -781,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -789,13 +786,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8511749347258486</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L8">
-        <v>326</v>
+        <v>67</v>
       </c>
       <c r="M8">
-        <v>326</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -807,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -815,13 +812,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8301886792452831</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L9">
-        <v>88</v>
+        <v>311</v>
       </c>
       <c r="M9">
-        <v>88</v>
+        <v>311</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -833,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -841,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -859,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -867,13 +864,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -885,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -893,13 +890,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7872340425531915</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -911,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -919,13 +916,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.78125</v>
+        <v>0.796875</v>
       </c>
       <c r="L13">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="M13">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -937,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -945,13 +942,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -963,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -971,13 +968,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7605633802816901</v>
+        <v>0.7875</v>
       </c>
       <c r="L15">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="M15">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -997,13 +994,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7575757575757576</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1015,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1023,13 +1020,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.7560975609756098</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L17">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1041,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1049,13 +1046,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.7301587301587301</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1067,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1075,13 +1072,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6976744186046512</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1093,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1101,13 +1098,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6875</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1119,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1153,13 +1150,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.6176470588235294</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L22">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M22">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1171,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1179,13 +1176,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5898305084745763</v>
+        <v>0.62</v>
       </c>
       <c r="L23">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1197,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1205,13 +1202,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1223,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1231,13 +1228,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5538461538461539</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1249,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1257,13 +1254,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5425531914893617</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L26">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="M26">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1275,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>43</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1283,13 +1280,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5355648535564853</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L27">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="M27">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1301,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>111</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1309,13 +1306,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.5142857142857142</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1327,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1353,32 +1350,6 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30">
-        <v>0.3561643835616438</v>
-      </c>
-      <c r="L30">
-        <v>26</v>
-      </c>
-      <c r="M30">
-        <v>26</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
         <v>47</v>
       </c>
     </row>
